--- a/raw_data/20200818_saline/20200818_Sensor0_Test_64.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_64.xlsx
@@ -1,736 +1,1152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89306ADE-D37C-411D-92DA-C170ACD2F7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>56702.893464</v>
+        <v>56702.893464000001</v>
       </c>
       <c r="B2" s="1">
         <v>15.750804</v>
       </c>
       <c r="C2" s="1">
-        <v>903.552000</v>
+        <v>903.55200000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-192.066000</v>
+        <v>-192.066</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>56712.966717</v>
+        <v>56712.966717000003</v>
       </c>
       <c r="G2" s="1">
-        <v>15.753602</v>
+        <v>15.753602000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>919.868000</v>
+        <v>919.86800000000005</v>
       </c>
       <c r="I2" s="1">
-        <v>-163.141000</v>
+        <v>-163.14099999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>56723.102461</v>
+        <v>56723.102461000002</v>
       </c>
       <c r="L2" s="1">
-        <v>15.756417</v>
+        <v>15.756417000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>941.714000</v>
+        <v>941.71400000000006</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.333000</v>
+        <v>-117.333</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>56733.375118</v>
+        <v>56733.375118000004</v>
       </c>
       <c r="Q2" s="1">
         <v>15.759271</v>
       </c>
       <c r="R2" s="1">
-        <v>948.150000</v>
+        <v>948.15</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.436000</v>
+        <v>-102.43600000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>56744.217193</v>
+        <v>56744.217192999997</v>
       </c>
       <c r="V2" s="1">
         <v>15.762283</v>
       </c>
       <c r="W2" s="1">
-        <v>954.641000</v>
+        <v>954.64099999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.124500</v>
+        <v>-89.124499999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>56754.704068</v>
+        <v>56754.704067999999</v>
       </c>
       <c r="AA2" s="1">
         <v>15.765196</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.822000</v>
+        <v>961.822</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.096200</v>
+        <v>-80.096199999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>56765.256454</v>
+        <v>56765.256454000002</v>
       </c>
       <c r="AF2" s="1">
         <v>15.768127</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.707000</v>
+        <v>966.70699999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.818600</v>
+        <v>-79.818600000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>56775.694297</v>
+        <v>56775.694297000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>15.771026</v>
+        <v>15.771026000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.857000</v>
+        <v>974.85699999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.992400</v>
+        <v>-87.992400000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>56786.275452</v>
+        <v>56786.275452000002</v>
       </c>
       <c r="AP2" s="1">
         <v>15.773965</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.141000</v>
+        <v>984.14099999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.254000</v>
+        <v>-103.254</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>56797.258332</v>
+        <v>56797.258331999998</v>
       </c>
       <c r="AU2" s="1">
         <v>15.777016</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.685000</v>
+        <v>995.68499999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.091000</v>
+        <v>-125.09099999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>56808.318975</v>
+        <v>56808.318975000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>15.780089</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB2" s="1">
-        <v>-144.099000</v>
+        <v>-144.09899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>56819.664639</v>
+        <v>56819.664639000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>15.783240</v>
+        <v>15.783239999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1051.540000</v>
+        <v>1051.54</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.573000</v>
+        <v>-229.57300000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>56830.681282</v>
+        <v>56830.681281999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>15.786300</v>
+        <v>15.786300000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.270000</v>
+        <v>1132.27</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.059000</v>
+        <v>-366.05900000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>56842.102129</v>
+        <v>56842.102128999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>15.789473</v>
+        <v>15.789472999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.074000</v>
+        <v>-576.07399999999996</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>56853.158946</v>
+        <v>56853.158946000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>15.792544</v>
+        <v>15.792543999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1413.630000</v>
+        <v>1413.63</v>
       </c>
       <c r="BV2" s="1">
-        <v>-799.795000</v>
+        <v>-799.79499999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>56863.873028</v>
+        <v>56863.873028000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>15.795520</v>
+        <v>15.79552</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1576.690000</v>
+        <v>1576.69</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1033.470000</v>
+        <v>-1033.47</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>56874.488936</v>
+        <v>56874.488936000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.798469</v>
+        <v>15.798469000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1985.680000</v>
+        <v>1985.68</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1577.190000</v>
+        <v>-1577.19</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>56703.281336</v>
       </c>
@@ -738,300 +1154,300 @@
         <v>15.750911</v>
       </c>
       <c r="C3" s="1">
-        <v>903.682000</v>
+        <v>903.68200000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-192.184000</v>
+        <v>-192.184</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>56713.311034</v>
+        <v>56713.311033999998</v>
       </c>
       <c r="G3" s="1">
         <v>15.753698</v>
       </c>
       <c r="H3" s="1">
-        <v>920.205000</v>
+        <v>920.20500000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-163.103000</v>
+        <v>-163.10300000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>56723.524100</v>
+        <v>56723.524100000002</v>
       </c>
       <c r="L3" s="1">
         <v>15.756534</v>
       </c>
       <c r="M3" s="1">
-        <v>941.764000</v>
+        <v>941.76400000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.365000</v>
+        <v>-117.36499999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>56734.070495</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.759464</v>
+        <v>15.759463999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.188000</v>
+        <v>948.18799999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.429000</v>
+        <v>-102.429</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>56744.623377</v>
+        <v>56744.623377000004</v>
       </c>
       <c r="V3" s="1">
         <v>15.762395</v>
       </c>
       <c r="W3" s="1">
-        <v>954.649000</v>
+        <v>954.649</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.152900</v>
+        <v>-89.152900000000002</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>56755.070613</v>
+        <v>56755.070613000004</v>
       </c>
       <c r="AA3" s="1">
         <v>15.765297</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.843000</v>
+        <v>961.84299999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.035000</v>
+        <v>-80.034999999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>56765.626513</v>
+        <v>56765.626513000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>15.768230</v>
+        <v>15.768230000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.927000</v>
+        <v>966.92700000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.736000</v>
+        <v>-79.736000000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>56776.079194</v>
+        <v>56776.079193999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>15.771133</v>
+        <v>15.771133000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.837000</v>
+        <v>974.83699999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.006900</v>
+        <v>-88.006900000000002</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>56787.018426</v>
+        <v>56787.018426000002</v>
       </c>
       <c r="AP3" s="1">
         <v>15.774172</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.130000</v>
+        <v>984.13</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.223000</v>
+        <v>-103.223</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>56798.012250</v>
+        <v>56798.01225</v>
       </c>
       <c r="AU3" s="1">
-        <v>15.777226</v>
+        <v>15.777226000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.678000</v>
+        <v>995.678</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.102000</v>
+        <v>-125.102</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>56808.709469</v>
+        <v>56808.709469000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>15.780197</v>
+        <v>15.780196999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB3" s="1">
-        <v>-144.068000</v>
+        <v>-144.06800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>56820.030690</v>
+        <v>56820.03069</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.783342</v>
+        <v>15.783341999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1051.570000</v>
+        <v>1051.57</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.595000</v>
+        <v>-229.595</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>56831.076559</v>
+        <v>56831.076559000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>15.786410</v>
+        <v>15.78641</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.270000</v>
+        <v>1132.27</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.073000</v>
+        <v>-366.07299999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>56842.835748</v>
+        <v>56842.835747999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>15.789677</v>
+        <v>15.789676999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1265.210000</v>
+        <v>1265.21</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.099000</v>
+        <v>-576.09900000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>56853.301299</v>
+        <v>56853.301298999999</v>
       </c>
       <c r="BT3" s="1">
         <v>15.792584</v>
       </c>
       <c r="BU3" s="1">
-        <v>1413.570000</v>
+        <v>1413.57</v>
       </c>
       <c r="BV3" s="1">
-        <v>-799.800000</v>
+        <v>-799.8</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>56864.051091</v>
+        <v>56864.051091000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>15.795570</v>
+        <v>15.79557</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1576.660000</v>
+        <v>1576.66</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1033.420000</v>
+        <v>-1033.42</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>56875.055830</v>
+        <v>56875.055829999998</v>
       </c>
       <c r="CD3" s="1">
         <v>15.798627</v>
       </c>
       <c r="CE3" s="1">
-        <v>1985.910000</v>
+        <v>1985.91</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1577.280000</v>
+        <v>-1577.28</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>56703.696024</v>
+        <v>56703.696023999997</v>
       </c>
       <c r="B4" s="1">
-        <v>15.751027</v>
+        <v>15.751027000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>903.755000</v>
+        <v>903.755</v>
       </c>
       <c r="D4" s="1">
-        <v>-192.098000</v>
+        <v>-192.09800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>56713.733034</v>
+        <v>56713.733033999997</v>
       </c>
       <c r="G4" s="1">
-        <v>15.753815</v>
+        <v>15.753814999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>920.253000</v>
+        <v>920.25300000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.000000</v>
+        <v>-163</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>56723.866828</v>
+        <v>56723.866827999998</v>
       </c>
       <c r="L4" s="1">
-        <v>15.756630</v>
+        <v>15.756629999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>941.729000</v>
+        <v>941.72900000000004</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.381000</v>
+        <v>-117.381</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>56734.421167</v>
@@ -1040,300 +1456,300 @@
         <v>15.759561</v>
       </c>
       <c r="R4" s="1">
-        <v>948.186000</v>
+        <v>948.18600000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.415000</v>
+        <v>-102.41500000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>56744.965649</v>
+        <v>56744.965648999998</v>
       </c>
       <c r="V4" s="1">
-        <v>15.762490</v>
+        <v>15.76249</v>
       </c>
       <c r="W4" s="1">
-        <v>954.572000</v>
+        <v>954.572</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.179500</v>
+        <v>-89.179500000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>56755.417811</v>
+        <v>56755.417810999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>15.765394</v>
+        <v>15.765394000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.849000</v>
+        <v>961.84900000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.138200</v>
+        <v>-80.138199999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>56765.969205</v>
+        <v>56765.969205000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>15.768325</v>
+        <v>15.768325000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.035000</v>
+        <v>967.03499999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.871400</v>
+        <v>-79.871399999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>56776.779511</v>
+        <v>56776.779511000001</v>
       </c>
       <c r="AK4" s="1">
         <v>15.771328</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.836000</v>
+        <v>974.83600000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.006400</v>
+        <v>-88.006399999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>56787.376537</v>
+        <v>56787.376536999996</v>
       </c>
       <c r="AP4" s="1">
-        <v>15.774271</v>
+        <v>15.774271000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.125000</v>
+        <v>984.125</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.234000</v>
+        <v>-103.23399999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>56798.397642</v>
+        <v>56798.397642000004</v>
       </c>
       <c r="AU4" s="1">
         <v>15.777333</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.687000</v>
+        <v>995.68700000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.105000</v>
+        <v>-125.105</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>56809.071052</v>
+        <v>56809.071051999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>15.780298</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB4" s="1">
-        <v>-144.078000</v>
+        <v>-144.078</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>56820.716622</v>
       </c>
       <c r="BE4" s="1">
-        <v>15.783532</v>
+        <v>15.783531999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1051.540000</v>
+        <v>1051.54</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.594000</v>
+        <v>-229.59399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>56831.823542</v>
+        <v>56831.823541999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>15.786618</v>
+        <v>15.786618000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.260000</v>
+        <v>1132.26</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.085000</v>
+        <v>-366.08499999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>56842.960704</v>
+        <v>56842.960703999997</v>
       </c>
       <c r="BO4" s="1">
         <v>15.789711</v>
       </c>
       <c r="BP4" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.100000</v>
+        <v>-576.1</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>56853.710994</v>
+        <v>56853.710994000001</v>
       </c>
       <c r="BT4" s="1">
         <v>15.792697</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.470000</v>
+        <v>1413.47</v>
       </c>
       <c r="BV4" s="1">
-        <v>-799.911000</v>
+        <v>-799.91099999999994</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>56864.465779</v>
+        <v>56864.465778999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.795685</v>
+        <v>15.795685000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1576.500000</v>
+        <v>1576.5</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1033.460000</v>
+        <v>-1033.46</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>56875.575668</v>
+        <v>56875.575667999998</v>
       </c>
       <c r="CD4" s="1">
         <v>15.798771</v>
       </c>
       <c r="CE4" s="1">
-        <v>1985.390000</v>
+        <v>1985.39</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1578.790000</v>
+        <v>-1578.79</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>56703.973751</v>
+        <v>56703.973750999998</v>
       </c>
       <c r="B5" s="1">
         <v>15.751104</v>
       </c>
       <c r="C5" s="1">
-        <v>903.545000</v>
+        <v>903.54499999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-192.037000</v>
+        <v>-192.03700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>56714.000415</v>
+        <v>56714.000415000002</v>
       </c>
       <c r="G5" s="1">
-        <v>15.753889</v>
+        <v>15.753888999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>920.491000</v>
+        <v>920.49099999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-162.718000</v>
+        <v>-162.71799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>56724.212509</v>
+        <v>56724.212508999997</v>
       </c>
       <c r="L5" s="1">
         <v>15.756726</v>
       </c>
       <c r="M5" s="1">
-        <v>941.675000</v>
+        <v>941.67499999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.321000</v>
+        <v>-117.321</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>56734.770847</v>
       </c>
       <c r="Q5" s="1">
-        <v>15.759659</v>
+        <v>15.759658999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>948.237000</v>
+        <v>948.23699999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.485000</v>
+        <v>-102.485</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>56745.308850</v>
+        <v>56745.308850000001</v>
       </c>
       <c r="V5" s="1">
-        <v>15.762586</v>
+        <v>15.762586000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>954.595000</v>
+        <v>954.59500000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.096800</v>
+        <v>-89.096800000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>56756.118164</v>
       </c>
       <c r="AA5" s="1">
-        <v>15.765588</v>
+        <v>15.765587999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.842000</v>
+        <v>961.84199999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.094400</v>
+        <v>-80.094399999999993</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>56766.656164</v>
@@ -1342,118 +1758,118 @@
         <v>15.768516</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.983000</v>
+        <v>966.98299999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.899200</v>
+        <v>-79.899199999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>56777.127238</v>
+        <v>56777.127238000001</v>
       </c>
       <c r="AK5" s="1">
         <v>15.771424</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.837000</v>
+        <v>974.83699999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.011600</v>
+        <v>-88.011600000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>56787.738649</v>
+        <v>56787.738648999999</v>
       </c>
       <c r="AP5" s="1">
         <v>15.774372</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.151000</v>
+        <v>984.15099999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.249000</v>
+        <v>-103.249</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>56798.759721</v>
+        <v>56798.759721000002</v>
       </c>
       <c r="AU5" s="1">
         <v>15.777433</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.673000</v>
+        <v>995.673</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.110000</v>
+        <v>-125.11</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>56809.735692</v>
+        <v>56809.735692000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15.780482</v>
+        <v>15.780481999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB5" s="1">
-        <v>-144.070000</v>
+        <v>-144.07</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>56821.132764</v>
+        <v>56821.132764000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>15.783648</v>
+        <v>15.783647999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1051.540000</v>
+        <v>1051.54</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.618000</v>
+        <v>-229.61799999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>56832.224303</v>
+        <v>56832.224303000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>15.786729</v>
+        <v>15.786728999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.270000</v>
+        <v>1132.27</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.080000</v>
+        <v>-366.08</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>56843.352047</v>
       </c>
       <c r="BO5" s="1">
-        <v>15.789820</v>
+        <v>15.789820000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.119000</v>
+        <v>-576.11900000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>56854.139077</v>
@@ -1462,150 +1878,150 @@
         <v>15.792816</v>
       </c>
       <c r="BU5" s="1">
-        <v>1413.520000</v>
+        <v>1413.52</v>
       </c>
       <c r="BV5" s="1">
-        <v>-799.983000</v>
+        <v>-799.98299999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>56864.893794</v>
+        <v>56864.893794000003</v>
       </c>
       <c r="BY5" s="1">
         <v>15.795804</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1576.620000</v>
+        <v>1576.62</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1033.550000</v>
+        <v>-1033.55</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>56876.093459</v>
+        <v>56876.093459000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>15.798915</v>
+        <v>15.798914999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1985.180000</v>
+        <v>1985.18</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1578.540000</v>
+        <v>-1578.54</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>56704.315990</v>
+        <v>56704.315990000003</v>
       </c>
       <c r="B6" s="1">
         <v>15.751199</v>
       </c>
       <c r="C6" s="1">
-        <v>903.560000</v>
+        <v>903.56</v>
       </c>
       <c r="D6" s="1">
-        <v>-192.053000</v>
+        <v>-192.053</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>56714.344108</v>
+        <v>56714.344107999998</v>
       </c>
       <c r="G6" s="1">
-        <v>15.753984</v>
+        <v>15.753984000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>920.329000</v>
+        <v>920.32899999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>-163.116000</v>
+        <v>-163.11600000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>56724.563708</v>
+        <v>56724.563708000001</v>
       </c>
       <c r="L6" s="1">
-        <v>15.756823</v>
+        <v>15.756823000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>941.744000</v>
+        <v>941.74400000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.235000</v>
+        <v>-117.235</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>56735.466735</v>
+        <v>56735.466735000002</v>
       </c>
       <c r="Q6" s="1">
         <v>15.759852</v>
       </c>
       <c r="R6" s="1">
-        <v>948.209000</v>
+        <v>948.20899999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.453000</v>
+        <v>-102.453</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>56745.998297</v>
+        <v>56745.998296999998</v>
       </c>
       <c r="V6" s="1">
         <v>15.762777</v>
       </c>
       <c r="W6" s="1">
-        <v>954.668000</v>
+        <v>954.66800000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.089500</v>
+        <v>-89.089500000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>56756.465394</v>
+        <v>56756.465393999999</v>
       </c>
       <c r="AA6" s="1">
         <v>15.765685</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.849000</v>
+        <v>961.84900000000005</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.102100</v>
+        <v>-80.102099999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>56767.001877</v>
+        <v>56767.001877000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>15.768612</v>
+        <v>15.768611999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.811000</v>
+        <v>966.81100000000004</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.916900</v>
+        <v>-79.916899999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>56777.476422</v>
@@ -1614,58 +2030,58 @@
         <v>15.771521</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.861000</v>
+        <v>974.86099999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.003600</v>
+        <v>-88.003600000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>56788.409703</v>
+        <v>56788.409702999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>15.774558</v>
+        <v>15.774558000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.142000</v>
+        <v>984.14200000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.235000</v>
+        <v>-103.235</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>56799.343017</v>
+        <v>56799.343016999999</v>
       </c>
       <c r="AU6" s="1">
         <v>15.777595</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.682000</v>
+        <v>995.68200000000002</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.114000</v>
+        <v>-125.114</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>56810.174155</v>
+        <v>56810.174155000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>15.780604</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.440000</v>
+        <v>1005.44</v>
       </c>
       <c r="BB6" s="1">
-        <v>-144.062000</v>
+        <v>-144.06200000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>56821.513197</v>
@@ -1674,58 +2090,58 @@
         <v>15.783754</v>
       </c>
       <c r="BF6" s="1">
-        <v>1051.560000</v>
+        <v>1051.56</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.619000</v>
+        <v>-229.619</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>56832.598317</v>
+        <v>56832.598317000004</v>
       </c>
       <c r="BJ6" s="1">
         <v>15.786833</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.290000</v>
+        <v>1132.29</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.075000</v>
+        <v>-366.07499999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>56843.750367</v>
+        <v>56843.750367000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>15.789931</v>
+        <v>15.789930999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.174000</v>
+        <v>-576.17399999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>56854.562128</v>
+        <v>56854.562127999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>15.792934</v>
+        <v>15.792934000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1413.470000</v>
+        <v>1413.47</v>
       </c>
       <c r="BV6" s="1">
-        <v>-799.955000</v>
+        <v>-799.95500000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>56865.330275</v>
@@ -1734,452 +2150,452 @@
         <v>15.795925</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1576.680000</v>
+        <v>1576.68</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1033.450000</v>
+        <v>-1033.45</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>56876.645011</v>
+        <v>56876.645011000001</v>
       </c>
       <c r="CD6" s="1">
         <v>15.799068</v>
       </c>
       <c r="CE6" s="1">
-        <v>1985.690000</v>
+        <v>1985.69</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1577.620000</v>
+        <v>-1577.62</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>56704.654759</v>
+        <v>56704.654758999997</v>
       </c>
       <c r="B7" s="1">
         <v>15.751293</v>
       </c>
       <c r="C7" s="1">
-        <v>903.621000</v>
+        <v>903.62099999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-191.922000</v>
+        <v>-191.922</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>56714.691337</v>
+        <v>56714.691336999997</v>
       </c>
       <c r="G7" s="1">
-        <v>15.754081</v>
+        <v>15.754080999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>920.268000</v>
+        <v>920.26800000000003</v>
       </c>
       <c r="I7" s="1">
-        <v>-162.899000</v>
+        <v>-162.899</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>56725.255595</v>
+        <v>56725.255595000002</v>
       </c>
       <c r="L7" s="1">
-        <v>15.757015</v>
+        <v>15.757015000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>941.595000</v>
+        <v>941.59500000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.386000</v>
+        <v>-117.386</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>56735.820879</v>
+        <v>56735.820878999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.759950</v>
+        <v>15.75995</v>
       </c>
       <c r="R7" s="1">
-        <v>948.179000</v>
+        <v>948.17899999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.448000</v>
+        <v>-102.44799999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>56746.342512</v>
+        <v>56746.342512000003</v>
       </c>
       <c r="V7" s="1">
-        <v>15.762873</v>
+        <v>15.762873000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>954.681000</v>
+        <v>954.68100000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.047900</v>
+        <v>-89.047899999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>56756.813585</v>
+        <v>56756.813585000004</v>
       </c>
       <c r="AA7" s="1">
         <v>15.765782</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.831000</v>
+        <v>961.83100000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.124900</v>
+        <v>-80.124899999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>56767.655970</v>
+        <v>56767.65597</v>
       </c>
       <c r="AF7" s="1">
-        <v>15.768793</v>
+        <v>15.768793000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.816000</v>
+        <v>966.81600000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.961100</v>
+        <v>-79.961100000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>56778.140069</v>
+        <v>56778.140069000001</v>
       </c>
       <c r="AK7" s="1">
         <v>15.771706</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.856000</v>
+        <v>974.85599999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.018400</v>
+        <v>-88.0184</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>56788.853128</v>
+        <v>56788.853128000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>15.774681</v>
+        <v>15.774680999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.130000</v>
+        <v>984.13</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.239000</v>
+        <v>-103.239</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>56799.493306</v>
+        <v>56799.493305999997</v>
       </c>
       <c r="AU7" s="1">
         <v>15.777637</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.683000</v>
+        <v>995.68299999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.096000</v>
+        <v>-125.096</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>56810.532762</v>
+        <v>56810.532762000003</v>
       </c>
       <c r="AZ7" s="1">
         <v>15.780704</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.089000</v>
+        <v>-144.089</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>56821.875771</v>
+        <v>56821.875770999999</v>
       </c>
       <c r="BE7" s="1">
         <v>15.783854</v>
       </c>
       <c r="BF7" s="1">
-        <v>1051.560000</v>
+        <v>1051.56</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.622000</v>
+        <v>-229.62200000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>56833.036254</v>
+        <v>56833.036253999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>15.786955</v>
+        <v>15.786955000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.260000</v>
+        <v>1132.26</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.075000</v>
+        <v>-366.07499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>56844.175901</v>
+        <v>56844.175901000002</v>
       </c>
       <c r="BO7" s="1">
         <v>15.790049</v>
       </c>
       <c r="BP7" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.112000</v>
+        <v>-576.11199999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>56854.968359</v>
+        <v>56854.968358999999</v>
       </c>
       <c r="BT7" s="1">
         <v>15.793047</v>
       </c>
       <c r="BU7" s="1">
-        <v>1413.470000</v>
+        <v>1413.47</v>
       </c>
       <c r="BV7" s="1">
-        <v>-800.078000</v>
+        <v>-800.07799999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>56865.751377</v>
+        <v>56865.751377000001</v>
       </c>
       <c r="BY7" s="1">
         <v>15.796042</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1576.480000</v>
+        <v>1576.48</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1033.540000</v>
+        <v>-1033.54</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>56877.175263</v>
+        <v>56877.175262999997</v>
       </c>
       <c r="CD7" s="1">
         <v>15.799215</v>
       </c>
       <c r="CE7" s="1">
-        <v>1985.810000</v>
+        <v>1985.81</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1578.840000</v>
+        <v>-1578.84</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>56705.336261</v>
+        <v>56705.336260999997</v>
       </c>
       <c r="B8" s="1">
-        <v>15.751482</v>
+        <v>15.751481999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>903.656000</v>
+        <v>903.65599999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-192.188000</v>
+        <v>-192.18799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>56715.382232</v>
+        <v>56715.382232000004</v>
       </c>
       <c r="G8" s="1">
         <v>15.754273</v>
       </c>
       <c r="H8" s="1">
-        <v>920.184000</v>
+        <v>920.18399999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-163.193000</v>
+        <v>-163.19300000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>56725.600353</v>
+        <v>56725.600353000002</v>
       </c>
       <c r="L8" s="1">
         <v>15.757111</v>
       </c>
       <c r="M8" s="1">
-        <v>941.730000</v>
+        <v>941.73</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.362000</v>
+        <v>-117.36199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>56736.163117</v>
+        <v>56736.163116999996</v>
       </c>
       <c r="Q8" s="1">
         <v>15.760045</v>
       </c>
       <c r="R8" s="1">
-        <v>948.170000</v>
+        <v>948.17</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.440000</v>
+        <v>-102.44</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>56746.680814</v>
+        <v>56746.680813999999</v>
       </c>
       <c r="V8" s="1">
         <v>15.762967</v>
       </c>
       <c r="W8" s="1">
-        <v>954.587000</v>
+        <v>954.58699999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.122200</v>
+        <v>-89.122200000000007</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>56757.482193</v>
+        <v>56757.482193000003</v>
       </c>
       <c r="AA8" s="1">
         <v>15.765967</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.875000</v>
+        <v>961.875</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.023400</v>
+        <v>-80.023399999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>56768.033058</v>
+        <v>56768.033058000001</v>
       </c>
       <c r="AF8" s="1">
         <v>15.768898</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.773000</v>
+        <v>966.77300000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.911100</v>
+        <v>-79.911100000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>56778.523477</v>
+        <v>56778.523477000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>15.771812</v>
+        <v>15.771812000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.829000</v>
+        <v>974.82899999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.012500</v>
+        <v>-88.012500000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>56789.212232</v>
+        <v>56789.212231999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>15.774781</v>
+        <v>15.774781000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.103000</v>
+        <v>984.10299999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.245000</v>
+        <v>-103.245</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>56799.890600</v>
+        <v>56799.890599999999</v>
       </c>
       <c r="AU8" s="1">
         <v>15.777747</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.684000</v>
+        <v>995.68399999999997</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.095000</v>
+        <v>-125.095</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>56810.892362</v>
+        <v>56810.892361999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>15.780803</v>
+        <v>15.780803000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB8" s="1">
-        <v>-144.082000</v>
+        <v>-144.08199999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>56822.298895</v>
@@ -2188,512 +2604,512 @@
         <v>15.783972</v>
       </c>
       <c r="BF8" s="1">
-        <v>1051.560000</v>
+        <v>1051.56</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.610000</v>
+        <v>-229.61</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>56833.375056</v>
+        <v>56833.375055999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>15.787049</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.270000</v>
+        <v>1132.27</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.089000</v>
+        <v>-366.089</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>56844.570717</v>
+        <v>56844.570717000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>15.790159</v>
+        <v>15.790158999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1265.240000</v>
+        <v>1265.24</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.142000</v>
+        <v>-576.14200000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>56855.383503</v>
+        <v>56855.383502999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>15.793162</v>
+        <v>15.793162000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1413.480000</v>
+        <v>1413.48</v>
       </c>
       <c r="BV8" s="1">
-        <v>-800.100000</v>
+        <v>-800.1</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>56866.175457</v>
+        <v>56866.175456999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>15.796160</v>
+        <v>15.79616</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1576.370000</v>
+        <v>1576.37</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1033.380000</v>
+        <v>-1033.3800000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>56877.690592</v>
+        <v>56877.690591999999</v>
       </c>
       <c r="CD8" s="1">
         <v>15.799358</v>
       </c>
       <c r="CE8" s="1">
-        <v>1987.160000</v>
+        <v>1987.16</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1578.410000</v>
+        <v>-1578.41</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>56705.678228</v>
+        <v>56705.678227999997</v>
       </c>
       <c r="B9" s="1">
-        <v>15.751577</v>
+        <v>15.751576999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>903.614000</v>
+        <v>903.61400000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>-192.070000</v>
+        <v>-192.07</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>56715.734423</v>
+        <v>56715.734423000002</v>
       </c>
       <c r="G9" s="1">
-        <v>15.754371</v>
+        <v>15.754371000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>919.822000</v>
+        <v>919.822</v>
       </c>
       <c r="I9" s="1">
-        <v>-163.439000</v>
+        <v>-163.43899999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>56725.946028</v>
+        <v>56725.946027999998</v>
       </c>
       <c r="L9" s="1">
-        <v>15.757207</v>
+        <v>15.757206999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>941.800000</v>
+        <v>941.8</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.244000</v>
+        <v>-117.244</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>56736.830733</v>
+        <v>56736.830733000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>15.760231</v>
+        <v>15.760230999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>948.237000</v>
+        <v>948.23699999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.428000</v>
+        <v>-102.428</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>56747.347902</v>
+        <v>56747.347902000001</v>
       </c>
       <c r="V9" s="1">
         <v>15.763152</v>
       </c>
       <c r="W9" s="1">
-        <v>954.644000</v>
+        <v>954.64400000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.179500</v>
+        <v>-89.179500000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>56757.861600</v>
+        <v>56757.861599999997</v>
       </c>
       <c r="AA9" s="1">
         <v>15.766073</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.843000</v>
+        <v>961.84299999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.051800</v>
+        <v>-80.0518</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>56768.376290</v>
+        <v>56768.37629</v>
       </c>
       <c r="AF9" s="1">
         <v>15.768993</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.804000</v>
+        <v>966.80399999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.936000</v>
+        <v>-79.936000000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>56778.871636</v>
+        <v>56778.871636000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>15.771909</v>
+        <v>15.771909000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.846000</v>
+        <v>974.846</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.019400</v>
+        <v>-88.019400000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>56789.571832</v>
+        <v>56789.571832000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>15.774881</v>
+        <v>15.774881000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.118000</v>
+        <v>984.11800000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.230000</v>
+        <v>-103.23</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>56800.312201</v>
+        <v>56800.312201000001</v>
       </c>
       <c r="AU9" s="1">
         <v>15.777865</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.680000</v>
+        <v>995.68</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.112000</v>
+        <v>-125.11199999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>56811.306025</v>
+        <v>56811.306024999998</v>
       </c>
       <c r="AZ9" s="1">
         <v>15.780918</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.460000</v>
+        <v>1005.46</v>
       </c>
       <c r="BB9" s="1">
-        <v>-144.086000</v>
+        <v>-144.08600000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>56822.596460</v>
+        <v>56822.596460000001</v>
       </c>
       <c r="BE9" s="1">
         <v>15.784055</v>
       </c>
       <c r="BF9" s="1">
-        <v>1051.570000</v>
+        <v>1051.57</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.604000</v>
+        <v>-229.60400000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>56833.750144</v>
+        <v>56833.750143999998</v>
       </c>
       <c r="BJ9" s="1">
         <v>15.787153</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.250000</v>
+        <v>1132.25</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.071000</v>
+        <v>-366.07100000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>56844.990334</v>
+        <v>56844.990334000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>15.790275</v>
+        <v>15.790274999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1265.180000</v>
+        <v>1265.18</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.198000</v>
+        <v>-576.19799999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>56855.800175</v>
+        <v>56855.800174999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.793278</v>
+        <v>15.793278000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1413.480000</v>
+        <v>1413.48</v>
       </c>
       <c r="BV9" s="1">
-        <v>-800.227000</v>
+        <v>-800.22699999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>56866.621856</v>
+        <v>56866.621855999998</v>
       </c>
       <c r="BY9" s="1">
         <v>15.796284</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1576.580000</v>
+        <v>1576.58</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1033.690000</v>
+        <v>-1033.69</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>56878.211892</v>
+        <v>56878.211891999999</v>
       </c>
       <c r="CD9" s="1">
         <v>15.799503</v>
       </c>
       <c r="CE9" s="1">
-        <v>1986.590000</v>
+        <v>1986.59</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1576.960000</v>
+        <v>-1576.96</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>56706.021767</v>
+        <v>56706.021766999998</v>
       </c>
       <c r="B10" s="1">
         <v>15.751673</v>
       </c>
       <c r="C10" s="1">
-        <v>903.723000</v>
+        <v>903.72299999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-192.099000</v>
+        <v>-192.09899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>56716.080599</v>
+        <v>56716.080599000001</v>
       </c>
       <c r="G10" s="1">
         <v>15.754467</v>
       </c>
       <c r="H10" s="1">
-        <v>919.977000</v>
+        <v>919.97699999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-163.494000</v>
+        <v>-163.494</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>56726.607690</v>
+        <v>56726.607689999997</v>
       </c>
       <c r="L10" s="1">
         <v>15.757391</v>
       </c>
       <c r="M10" s="1">
-        <v>941.714000</v>
+        <v>941.71400000000006</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.276000</v>
+        <v>-117.276</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>56737.211163</v>
       </c>
       <c r="Q10" s="1">
-        <v>15.760336</v>
+        <v>15.760336000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>948.194000</v>
+        <v>948.19399999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.465000</v>
+        <v>-102.465</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>56747.712462</v>
+        <v>56747.712462000003</v>
       </c>
       <c r="V10" s="1">
-        <v>15.763253</v>
+        <v>15.763253000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>954.680000</v>
+        <v>954.68</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.225100</v>
+        <v>-89.225099999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>56758.207807</v>
+        <v>56758.207806999999</v>
       </c>
       <c r="AA10" s="1">
         <v>15.766169</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.892000</v>
+        <v>961.89200000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.079900</v>
+        <v>-80.079899999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>56768.722504</v>
+        <v>56768.722503999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>15.769090</v>
+        <v>15.76909</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.835000</v>
+        <v>966.83500000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.928600</v>
+        <v>-79.928600000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>56779.217349</v>
+        <v>56779.217348999999</v>
       </c>
       <c r="AK10" s="1">
         <v>15.772005</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.832000</v>
+        <v>974.83199999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.007500</v>
+        <v>-88.007499999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>56789.977559</v>
+        <v>56789.977558999999</v>
       </c>
       <c r="AP10" s="1">
         <v>15.774994</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.113000</v>
+        <v>984.11300000000006</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.257000</v>
+        <v>-103.25700000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>56800.615257</v>
+        <v>56800.615256999998</v>
       </c>
       <c r="AU10" s="1">
         <v>15.777949</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.685000</v>
+        <v>995.68499999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.089000</v>
+        <v>-125.089</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>56811.611065</v>
+        <v>56811.611064999997</v>
       </c>
       <c r="AZ10" s="1">
         <v>15.781003</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.440000</v>
+        <v>1005.44</v>
       </c>
       <c r="BB10" s="1">
-        <v>-144.088000</v>
+        <v>-144.08799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>56822.959034</v>
@@ -2702,13 +3118,13 @@
         <v>15.784155</v>
       </c>
       <c r="BF10" s="1">
-        <v>1051.580000</v>
+        <v>1051.58</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.638000</v>
+        <v>-229.63800000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>56834.126957</v>
@@ -2717,210 +3133,210 @@
         <v>15.787257</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.250000</v>
+        <v>1132.25</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.064000</v>
+        <v>-366.06400000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>56845.387628</v>
+        <v>56845.387627999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>15.790385</v>
+        <v>15.790385000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1265.170000</v>
+        <v>1265.17</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.204000</v>
+        <v>-576.20399999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>56856.236654</v>
       </c>
       <c r="BT10" s="1">
-        <v>15.793399</v>
+        <v>15.793399000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1413.510000</v>
+        <v>1413.51</v>
       </c>
       <c r="BV10" s="1">
-        <v>-800.263000</v>
+        <v>-800.26300000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>56867.055398</v>
+        <v>56867.055397999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>15.796404</v>
+        <v>15.796404000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1576.670000</v>
+        <v>1576.67</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1033.440000</v>
+        <v>-1033.44</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>56878.727248</v>
+        <v>56878.727248000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>15.799646</v>
+        <v>15.799645999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1986.900000</v>
+        <v>1986.9</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1577.360000</v>
+        <v>-1577.36</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>56706.677444</v>
+        <v>56706.677444000001</v>
       </c>
       <c r="B11" s="1">
-        <v>15.751855</v>
+        <v>15.751855000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>903.714000</v>
+        <v>903.71400000000006</v>
       </c>
       <c r="D11" s="1">
-        <v>-192.153000</v>
+        <v>-192.15299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>56716.741768</v>
       </c>
       <c r="G11" s="1">
-        <v>15.754650</v>
+        <v>15.75465</v>
       </c>
       <c r="H11" s="1">
-        <v>920.498000</v>
+        <v>920.49800000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-163.197000</v>
+        <v>-163.197</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>56726.982665</v>
+        <v>56726.982665000003</v>
       </c>
       <c r="L11" s="1">
         <v>15.757495</v>
       </c>
       <c r="M11" s="1">
-        <v>941.634000</v>
+        <v>941.63400000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.330000</v>
+        <v>-117.33</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>56737.559887</v>
+        <v>56737.559887000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>15.760433</v>
+        <v>15.760433000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>948.214000</v>
+        <v>948.21400000000006</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.473000</v>
+        <v>-102.473</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>56748.059201</v>
+        <v>56748.059200999996</v>
       </c>
       <c r="V11" s="1">
-        <v>15.763350</v>
+        <v>15.763350000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>954.571000</v>
+        <v>954.57100000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.119100</v>
+        <v>-89.119100000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>56758.554512</v>
+        <v>56758.554512000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>15.766265</v>
+        <v>15.766265000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.884000</v>
+        <v>961.88400000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.092200</v>
+        <v>-80.092200000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>56769.160501</v>
+        <v>56769.160500999998</v>
       </c>
       <c r="AF11" s="1">
         <v>15.769211</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.807000</v>
+        <v>966.80700000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.882100</v>
+        <v>-79.882099999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>56779.646883</v>
+        <v>56779.646883000001</v>
       </c>
       <c r="AK11" s="1">
         <v>15.772124</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.868000</v>
+        <v>974.86800000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.985500</v>
+        <v>-87.985500000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>56790.295989</v>
+        <v>56790.295988999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>15.775082</v>
+        <v>15.775081999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.127000</v>
+        <v>984.12699999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.238000</v>
+        <v>-103.238</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>56800.983815</v>
@@ -2929,73 +3345,73 @@
         <v>15.778051</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.680000</v>
+        <v>995.68</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.120000</v>
+        <v>-125.12</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>56811.968863</v>
+        <v>56811.968863000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>15.781102</v>
+        <v>15.781102000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.440000</v>
+        <v>1005.44</v>
       </c>
       <c r="BB11" s="1">
-        <v>-144.089000</v>
+        <v>-144.089</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>56823.319129</v>
+        <v>56823.319129000003</v>
       </c>
       <c r="BE11" s="1">
         <v>15.784255</v>
       </c>
       <c r="BF11" s="1">
-        <v>1051.550000</v>
+        <v>1051.55</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.616000</v>
+        <v>-229.61600000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>56834.876411</v>
+        <v>56834.876410999997</v>
       </c>
       <c r="BJ11" s="1">
         <v>15.787466</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.046000</v>
+        <v>-366.04599999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>56845.813693</v>
+        <v>56845.813692999996</v>
       </c>
       <c r="BO11" s="1">
         <v>15.790504</v>
       </c>
       <c r="BP11" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.157000</v>
+        <v>-576.15700000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>56856.668673</v>
@@ -3004,467 +3420,467 @@
         <v>15.793519</v>
       </c>
       <c r="BU11" s="1">
-        <v>1413.460000</v>
+        <v>1413.46</v>
       </c>
       <c r="BV11" s="1">
-        <v>-800.336000</v>
+        <v>-800.33600000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>56867.476463</v>
+        <v>56867.476462999999</v>
       </c>
       <c r="BY11" s="1">
         <v>15.796521</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1576.380000</v>
+        <v>1576.38</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1033.540000</v>
+        <v>-1033.54</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>56879.280255</v>
+        <v>56879.280254999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>15.799800</v>
+        <v>15.799799999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1987.140000</v>
+        <v>1987.14</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1578.320000</v>
+        <v>-1578.32</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>56707.047956</v>
+        <v>56707.047956000002</v>
       </c>
       <c r="B12" s="1">
         <v>15.751958</v>
       </c>
       <c r="C12" s="1">
-        <v>903.622000</v>
+        <v>903.62199999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-192.075000</v>
+        <v>-192.07499999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>56717.113271</v>
+        <v>56717.113271000002</v>
       </c>
       <c r="G12" s="1">
         <v>15.754754</v>
       </c>
       <c r="H12" s="1">
-        <v>919.922000</v>
+        <v>919.92200000000003</v>
       </c>
       <c r="I12" s="1">
-        <v>-163.130000</v>
+        <v>-163.13</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>56727.328905</v>
+        <v>56727.328905000002</v>
       </c>
       <c r="L12" s="1">
         <v>15.757591</v>
       </c>
       <c r="M12" s="1">
-        <v>941.681000</v>
+        <v>941.68100000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.381000</v>
+        <v>-117.381</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>56737.908744</v>
       </c>
       <c r="Q12" s="1">
-        <v>15.760530</v>
+        <v>15.760529999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>948.196000</v>
+        <v>948.19600000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.460000</v>
+        <v>-102.46</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>56748.408384</v>
+        <v>56748.408384000002</v>
       </c>
       <c r="V12" s="1">
-        <v>15.763447</v>
+        <v>15.763446999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>954.737000</v>
+        <v>954.73699999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.203700</v>
+        <v>-89.203699999999998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>56758.976110</v>
+        <v>56758.976110000003</v>
       </c>
       <c r="AA12" s="1">
         <v>15.766382</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.955000</v>
+        <v>961.95500000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.094100</v>
+        <v>-80.094099999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>56769.413956</v>
+        <v>56769.413955999997</v>
       </c>
       <c r="AF12" s="1">
         <v>15.769282</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.880000</v>
+        <v>966.88</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.924800</v>
+        <v>-79.924800000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>56779.928643</v>
+        <v>56779.928642999999</v>
       </c>
       <c r="AK12" s="1">
         <v>15.772202</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.830000</v>
+        <v>974.83</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.992600</v>
+        <v>-87.992599999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>56790.656085</v>
+        <v>56790.656085000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>15.775182</v>
+        <v>15.775181999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.113000</v>
+        <v>984.11300000000006</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.259000</v>
+        <v>-103.259</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>56801.348840</v>
+        <v>56801.348839999999</v>
       </c>
       <c r="AU12" s="1">
         <v>15.778152</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.664000</v>
+        <v>995.66399999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.103000</v>
+        <v>-125.10299999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>56812.329304</v>
+        <v>56812.329303999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>15.781203</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.460000</v>
+        <v>1005.46</v>
       </c>
       <c r="BB12" s="1">
-        <v>-144.088000</v>
+        <v>-144.08799999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>56824.040314</v>
+        <v>56824.040313999998</v>
       </c>
       <c r="BE12" s="1">
         <v>15.784456</v>
       </c>
       <c r="BF12" s="1">
-        <v>1051.560000</v>
+        <v>1051.56</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.612000</v>
+        <v>-229.61199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>56835.254892</v>
+        <v>56835.254891999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>15.787571</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.260000</v>
+        <v>1132.26</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.076000</v>
+        <v>-366.07600000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>56846.204075</v>
+        <v>56846.204075000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>15.790612</v>
+        <v>15.790611999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.147000</v>
+        <v>-576.14700000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>56857.078364</v>
+        <v>56857.078364000001</v>
       </c>
       <c r="BT12" s="1">
         <v>15.793633</v>
       </c>
       <c r="BU12" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="BV12" s="1">
-        <v>-800.346000</v>
+        <v>-800.346</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>56868.202111</v>
+        <v>56868.202110999999</v>
       </c>
       <c r="BY12" s="1">
         <v>15.796723</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1576.570000</v>
+        <v>1576.57</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1033.510000</v>
+        <v>-1033.51</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>56880.133375</v>
+        <v>56880.133374999998</v>
       </c>
       <c r="CD12" s="1">
         <v>15.800037</v>
       </c>
       <c r="CE12" s="1">
-        <v>1986.240000</v>
+        <v>1986.24</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1577.060000</v>
+        <v>-1577.06</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>56707.391218</v>
+        <v>56707.391217999997</v>
       </c>
       <c r="B13" s="1">
         <v>15.752053</v>
       </c>
       <c r="C13" s="1">
-        <v>903.694000</v>
+        <v>903.69399999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-192.216000</v>
+        <v>-192.21600000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>56717.459479</v>
+        <v>56717.459478999997</v>
       </c>
       <c r="G13" s="1">
-        <v>15.754850</v>
+        <v>15.754849999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>920.013000</v>
+        <v>920.01300000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-162.975000</v>
+        <v>-162.97499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>56727.674089</v>
       </c>
       <c r="L13" s="1">
-        <v>15.757687</v>
+        <v>15.757687000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>941.723000</v>
+        <v>941.72299999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.243000</v>
+        <v>-117.24299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>56738.336122</v>
+        <v>56738.336122000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>15.760649</v>
+        <v>15.760649000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>948.186000</v>
+        <v>948.18600000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.420000</v>
+        <v>-102.42</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>56748.847804</v>
+        <v>56748.847803999997</v>
       </c>
       <c r="V13" s="1">
         <v>15.763569</v>
       </c>
       <c r="W13" s="1">
-        <v>954.621000</v>
+        <v>954.62099999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.098600</v>
+        <v>-89.098600000000005</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>56759.254373</v>
+        <v>56759.254373000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>15.766460</v>
+        <v>15.76646</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.776000</v>
+        <v>961.77599999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.082700</v>
+        <v>-80.082700000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>56769.758144</v>
+        <v>56769.758143999999</v>
       </c>
       <c r="AF13" s="1">
         <v>15.769377</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.856000</v>
+        <v>966.85599999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.912400</v>
+        <v>-79.912400000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>56780.279318</v>
+        <v>56780.279318000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>15.772300</v>
+        <v>15.7723</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.842000</v>
+        <v>974.84199999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.027400</v>
+        <v>-88.0274</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>56791.013701</v>
+        <v>56791.013701000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>15.775282</v>
+        <v>15.775282000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.103000</v>
+        <v>984.10299999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.246000</v>
+        <v>-103.246</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>56802.075974</v>
+        <v>56802.075973999999</v>
       </c>
       <c r="AU13" s="1">
         <v>15.778354</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.658000</v>
+        <v>995.65800000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.118000</v>
+        <v>-125.11799999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>56813.045991</v>
+        <v>56813.045990999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>15.781402</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.440000</v>
+        <v>1005.44</v>
       </c>
       <c r="BB13" s="1">
-        <v>-144.079000</v>
+        <v>-144.07900000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>56824.405864</v>
@@ -3473,91 +3889,91 @@
         <v>15.784557</v>
       </c>
       <c r="BF13" s="1">
-        <v>1051.570000</v>
+        <v>1051.57</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.620000</v>
+        <v>-229.62</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>56835.629833</v>
+        <v>56835.629832999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>15.787675</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.240000</v>
+        <v>1132.24</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.058000</v>
+        <v>-366.05799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>56846.627626</v>
+        <v>56846.627626000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>15.790730</v>
+        <v>15.79073</v>
       </c>
       <c r="BP13" s="1">
-        <v>1265.160000</v>
+        <v>1265.1600000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.169000</v>
+        <v>-576.16899999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>56857.834269</v>
+        <v>56857.834268999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>15.793843</v>
+        <v>15.793843000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="BV13" s="1">
-        <v>-800.308000</v>
+        <v>-800.30799999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>56868.325614</v>
+        <v>56868.325614000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>15.796757</v>
+        <v>15.796756999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1576.400000</v>
+        <v>1576.4</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1033.410000</v>
+        <v>-1033.4100000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>56880.384351</v>
+        <v>56880.384351000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>15.800107</v>
+        <v>15.800107000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1986.530000</v>
+        <v>1986.53</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1579.210000</v>
+        <v>-1579.21</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>56707.733428</v>
       </c>
@@ -3565,148 +3981,148 @@
         <v>15.752148</v>
       </c>
       <c r="C14" s="1">
-        <v>903.603000</v>
+        <v>903.60299999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-191.986000</v>
+        <v>-191.98599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>56717.883062</v>
+        <v>56717.883062000001</v>
       </c>
       <c r="G14" s="1">
         <v>15.754968</v>
       </c>
       <c r="H14" s="1">
-        <v>920.345000</v>
+        <v>920.34500000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-162.966000</v>
+        <v>-162.96600000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>56728.092222</v>
+        <v>56728.092221999999</v>
       </c>
       <c r="L14" s="1">
-        <v>15.757803</v>
+        <v>15.757802999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>941.721000</v>
+        <v>941.721</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.258000</v>
+        <v>-117.258</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>56738.605913</v>
+        <v>56738.605912999999</v>
       </c>
       <c r="Q14" s="1">
         <v>15.760724</v>
       </c>
       <c r="R14" s="1">
-        <v>948.180000</v>
+        <v>948.18</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.400000</v>
+        <v>-102.4</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>56749.113660</v>
+        <v>56749.113660000003</v>
       </c>
       <c r="V14" s="1">
         <v>15.763643</v>
       </c>
       <c r="W14" s="1">
-        <v>954.571000</v>
+        <v>954.57100000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.200300</v>
+        <v>-89.200299999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>56759.600602</v>
+        <v>56759.600601999999</v>
       </c>
       <c r="AA14" s="1">
         <v>15.766556</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.886000</v>
+        <v>961.88599999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.021700</v>
+        <v>-80.021699999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>56770.100882</v>
+        <v>56770.100881999999</v>
       </c>
       <c r="AF14" s="1">
         <v>15.769472</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.801000</v>
+        <v>966.80100000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.889100</v>
+        <v>-79.889099999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>56780.628467</v>
+        <v>56780.628467000002</v>
       </c>
       <c r="AK14" s="1">
         <v>15.772397</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.852000</v>
+        <v>974.85199999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.993700</v>
+        <v>-87.993700000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>56791.741370</v>
+        <v>56791.741370000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>15.775484</v>
+        <v>15.775484000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.127000</v>
+        <v>984.12699999999995</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.253000</v>
+        <v>-103.253</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>56802.442022</v>
+        <v>56802.442022000003</v>
       </c>
       <c r="AU14" s="1">
         <v>15.778456</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.659000</v>
+        <v>995.65899999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.122000</v>
+        <v>-125.122</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>56813.403606</v>
@@ -3715,587 +4131,587 @@
         <v>15.781501</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB14" s="1">
-        <v>-144.108000</v>
+        <v>-144.108</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>56824.764472</v>
+        <v>56824.764472000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>15.784657</v>
+        <v>15.784656999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1051.550000</v>
+        <v>1051.55</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.604000</v>
+        <v>-229.60400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>56836.310842</v>
+        <v>56836.310841999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>15.787864</v>
+        <v>15.787864000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.270000</v>
+        <v>1132.27</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.077000</v>
+        <v>-366.077</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>56847.360714</v>
+        <v>56847.360714000002</v>
       </c>
       <c r="BO14" s="1">
         <v>15.790934</v>
       </c>
       <c r="BP14" s="1">
-        <v>1265.150000</v>
+        <v>1265.1500000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.177000</v>
+        <v>-576.17700000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>56857.948006</v>
+        <v>56857.948005999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>15.793874</v>
+        <v>15.793874000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1413.620000</v>
+        <v>1413.62</v>
       </c>
       <c r="BV14" s="1">
-        <v>-800.370000</v>
+        <v>-800.37</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>56868.773006</v>
+        <v>56868.773006000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>15.796881</v>
+        <v>15.796881000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1576.730000</v>
+        <v>1576.73</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1033.420000</v>
+        <v>-1033.42</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>56880.895229</v>
+        <v>56880.895229000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>15.800249</v>
+        <v>15.800249000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1986.590000</v>
+        <v>1986.59</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1579.300000</v>
+        <v>-1579.3</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>56708.157010</v>
+        <v>56708.157010000003</v>
       </c>
       <c r="B15" s="1">
-        <v>15.752266</v>
+        <v>15.752266000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>903.674000</v>
+        <v>903.67399999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-192.094000</v>
+        <v>-192.09399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>56718.173220</v>
+        <v>56718.173219999997</v>
       </c>
       <c r="G15" s="1">
         <v>15.755048</v>
       </c>
       <c r="H15" s="1">
-        <v>919.960000</v>
+        <v>919.96</v>
       </c>
       <c r="I15" s="1">
-        <v>-162.910000</v>
+        <v>-162.91</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>56728.382376</v>
+        <v>56728.382376000001</v>
       </c>
       <c r="L15" s="1">
-        <v>15.757884</v>
+        <v>15.757884000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>941.813000</v>
+        <v>941.81299999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.250000</v>
+        <v>-117.25</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>56738.956090</v>
+        <v>56738.95609</v>
       </c>
       <c r="Q15" s="1">
         <v>15.760821</v>
       </c>
       <c r="R15" s="1">
-        <v>948.216000</v>
+        <v>948.21600000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.440000</v>
+        <v>-102.44</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>56749.457889</v>
+        <v>56749.457888999998</v>
       </c>
       <c r="V15" s="1">
         <v>15.763738</v>
       </c>
       <c r="W15" s="1">
-        <v>954.600000</v>
+        <v>954.6</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.154300</v>
+        <v>-89.154300000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>56759.951281</v>
+        <v>56759.951281000001</v>
       </c>
       <c r="AA15" s="1">
         <v>15.766653</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.874000</v>
+        <v>961.87400000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.074800</v>
+        <v>-80.074799999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>56770.789064</v>
+        <v>56770.789063999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>15.769664</v>
+        <v>15.769664000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.875000</v>
+        <v>966.875</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.958000</v>
+        <v>-79.957999999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>56781.325345</v>
+        <v>56781.325344999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>15.772590</v>
+        <v>15.772589999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.862000</v>
+        <v>974.86199999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.001700</v>
+        <v>-88.0017</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>56792.118826</v>
+        <v>56792.118825999998</v>
       </c>
       <c r="AP15" s="1">
         <v>15.775589</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.141000</v>
+        <v>984.14099999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.257000</v>
+        <v>-103.25700000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>56802.806116</v>
       </c>
       <c r="AU15" s="1">
-        <v>15.778557</v>
+        <v>15.778556999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.657000</v>
+        <v>995.65700000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.118000</v>
+        <v>-125.11799999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>56813.762710</v>
+        <v>56813.762710000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>15.781601</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.430000</v>
+        <v>1005.43</v>
       </c>
       <c r="BB15" s="1">
-        <v>-144.071000</v>
+        <v>-144.071</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>56825.454903</v>
+        <v>56825.454902999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>15.784849</v>
+        <v>15.784848999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1051.570000</v>
+        <v>1051.57</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.594000</v>
+        <v>-229.59399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>56836.753769</v>
+        <v>56836.753769000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.787987</v>
+        <v>15.787986999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.270000</v>
+        <v>1132.27</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.078000</v>
+        <v>-366.07799999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>56847.950458</v>
+        <v>56847.950457999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>15.791097</v>
+        <v>15.791097000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.155000</v>
+        <v>-576.15499999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>56858.373915</v>
+        <v>56858.373914999996</v>
       </c>
       <c r="BT15" s="1">
         <v>15.793993</v>
       </c>
       <c r="BU15" s="1">
-        <v>1413.610000</v>
+        <v>1413.61</v>
       </c>
       <c r="BV15" s="1">
-        <v>-800.403000</v>
+        <v>-800.40300000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>56869.206014</v>
+        <v>56869.206014000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>15.797002</v>
+        <v>15.797002000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1576.500000</v>
+        <v>1576.5</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1033.490000</v>
+        <v>-1033.49</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>56881.414056</v>
+        <v>56881.414056000001</v>
       </c>
       <c r="CD15" s="1">
         <v>15.800393</v>
       </c>
       <c r="CE15" s="1">
-        <v>1986.970000</v>
+        <v>1986.97</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1577.630000</v>
+        <v>-1577.63</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>56708.431795</v>
+        <v>56708.431794999997</v>
       </c>
       <c r="B16" s="1">
-        <v>15.752342</v>
+        <v>15.752342000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>903.651000</v>
+        <v>903.65099999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-192.015000</v>
+        <v>-192.01499999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>56718.519925</v>
+        <v>56718.519925000001</v>
       </c>
       <c r="G16" s="1">
         <v>15.755144</v>
       </c>
       <c r="H16" s="1">
-        <v>919.587000</v>
+        <v>919.58699999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-162.657000</v>
+        <v>-162.65700000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>56728.731064</v>
       </c>
       <c r="L16" s="1">
-        <v>15.757981</v>
+        <v>15.757980999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>941.793000</v>
+        <v>941.79300000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.343000</v>
+        <v>-117.343</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>56739.308747</v>
+        <v>56739.308747000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>15.760919</v>
+        <v>15.760918999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>948.212000</v>
+        <v>948.21199999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.469000</v>
+        <v>-102.46899999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>56750.130986</v>
+        <v>56750.130985999996</v>
       </c>
       <c r="V16" s="1">
         <v>15.763925</v>
       </c>
       <c r="W16" s="1">
-        <v>954.600000</v>
+        <v>954.6</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.163800</v>
+        <v>-89.163799999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>56760.649116</v>
+        <v>56760.649116000001</v>
       </c>
       <c r="AA16" s="1">
         <v>15.766847</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.914000</v>
+        <v>961.91399999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.052600</v>
+        <v>-80.052599999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>56771.133054</v>
+        <v>56771.133053999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>15.769759</v>
+        <v>15.769759000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.821000</v>
+        <v>966.82100000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.919300</v>
+        <v>-79.919300000000007</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>56781.675025</v>
+        <v>56781.675024999997</v>
       </c>
       <c r="AK16" s="1">
         <v>15.772688</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.833000</v>
+        <v>974.83299999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.992700</v>
+        <v>-87.992699999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>56792.480371</v>
+        <v>56792.480370999998</v>
       </c>
       <c r="AP16" s="1">
         <v>15.775689</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.132000</v>
+        <v>984.13199999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.248000</v>
+        <v>-103.248</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>56803.482132</v>
+        <v>56803.482131999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>15.778745</v>
+        <v>15.778745000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.655000</v>
+        <v>995.65499999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.105000</v>
+        <v>-125.105</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>56814.435781</v>
       </c>
       <c r="AZ16" s="1">
-        <v>15.781788</v>
+        <v>15.781788000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.440000</v>
+        <v>1005.44</v>
       </c>
       <c r="BB16" s="1">
-        <v>-144.104000</v>
+        <v>-144.10400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>56825.874551</v>
+        <v>56825.874551000001</v>
       </c>
       <c r="BE16" s="1">
         <v>15.784965</v>
       </c>
       <c r="BF16" s="1">
-        <v>1051.540000</v>
+        <v>1051.54</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.607000</v>
+        <v>-229.607</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>56837.129241</v>
+        <v>56837.129241000002</v>
       </c>
       <c r="BJ16" s="1">
         <v>15.788091</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.270000</v>
+        <v>1132.27</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.053000</v>
+        <v>-366.053</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>56848.270377</v>
+        <v>56848.270377000001</v>
       </c>
       <c r="BO16" s="1">
         <v>15.791186</v>
       </c>
       <c r="BP16" s="1">
-        <v>1265.230000</v>
+        <v>1265.23</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.109000</v>
+        <v>-576.10900000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>56858.789036</v>
+        <v>56858.789036000002</v>
       </c>
       <c r="BT16" s="1">
         <v>15.794108</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.640000</v>
+        <v>1413.64</v>
       </c>
       <c r="BV16" s="1">
-        <v>-800.432000</v>
+        <v>-800.43200000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>56869.627148</v>
@@ -4304,60 +4720,60 @@
         <v>15.797119</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1576.570000</v>
+        <v>1576.57</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1033.510000</v>
+        <v>-1033.51</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>56881.933388</v>
+        <v>56881.933387999998</v>
       </c>
       <c r="CD16" s="1">
         <v>15.800537</v>
       </c>
       <c r="CE16" s="1">
-        <v>1985.430000</v>
+        <v>1985.43</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1577.780000</v>
+        <v>-1577.78</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>56708.772578</v>
+        <v>56708.772577999996</v>
       </c>
       <c r="B17" s="1">
         <v>15.752437</v>
       </c>
       <c r="C17" s="1">
-        <v>903.607000</v>
+        <v>903.60699999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-192.048000</v>
+        <v>-192.048</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>56718.864182</v>
+        <v>56718.864181999998</v>
       </c>
       <c r="G17" s="1">
-        <v>15.755240</v>
+        <v>15.755240000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>919.680000</v>
+        <v>919.68</v>
       </c>
       <c r="I17" s="1">
-        <v>-162.791000</v>
+        <v>-162.791</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>56729.077803</v>
@@ -4366,73 +4782,73 @@
         <v>15.758077</v>
       </c>
       <c r="M17" s="1">
-        <v>941.765000</v>
+        <v>941.76499999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.420000</v>
+        <v>-117.42</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>56740.004135</v>
+        <v>56740.004135000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>15.761112</v>
+        <v>15.761112000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>948.189000</v>
+        <v>948.18899999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.477000</v>
+        <v>-102.477</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>56750.483642</v>
+        <v>56750.483641999999</v>
       </c>
       <c r="V17" s="1">
         <v>15.764023</v>
       </c>
       <c r="W17" s="1">
-        <v>954.598000</v>
+        <v>954.59799999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.132300</v>
+        <v>-89.132300000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>56760.996347</v>
       </c>
       <c r="AA17" s="1">
-        <v>15.766943</v>
+        <v>15.766942999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.738000</v>
+        <v>961.73800000000006</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.016700</v>
+        <v>-80.0167</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>56771.474830</v>
+        <v>56771.474829999999</v>
       </c>
       <c r="AF17" s="1">
         <v>15.769854</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.910000</v>
+        <v>966.91</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.927000</v>
+        <v>-79.927000000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>56782.022224</v>
@@ -4441,151 +4857,151 @@
         <v>15.772784</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.831000</v>
+        <v>974.83100000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.001900</v>
+        <v>-88.001900000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>56793.156455</v>
+        <v>56793.156454999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>15.775877</v>
+        <v>15.775876999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.136000</v>
+        <v>984.13599999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.251000</v>
+        <v>-103.251</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>56803.896291</v>
+        <v>56803.896290999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>15.778860</v>
+        <v>15.77886</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.653000</v>
+        <v>995.65300000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.109000</v>
+        <v>-125.10899999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>56814.875732</v>
       </c>
       <c r="AZ17" s="1">
-        <v>15.781910</v>
+        <v>15.78191</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB17" s="1">
-        <v>-144.104000</v>
+        <v>-144.10400000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>56826.234646</v>
+        <v>56826.234645999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>15.785065</v>
+        <v>15.785064999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1051.570000</v>
+        <v>1051.57</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.581000</v>
+        <v>-229.58099999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>56837.504712</v>
+        <v>56837.504712000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>15.788196</v>
+        <v>15.788195999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.260000</v>
+        <v>1132.26</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.049000</v>
+        <v>-366.04899999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>56848.704899</v>
+        <v>56848.704898999997</v>
       </c>
       <c r="BO17" s="1">
         <v>15.791307</v>
       </c>
       <c r="BP17" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.117000</v>
+        <v>-576.11699999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>56859.222538</v>
+        <v>56859.222538000002</v>
       </c>
       <c r="BT17" s="1">
         <v>15.794228</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.710000</v>
+        <v>1413.71</v>
       </c>
       <c r="BV17" s="1">
-        <v>-800.465000</v>
+        <v>-800.46500000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>56870.046237</v>
+        <v>56870.046237000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>15.797235</v>
+        <v>15.797235000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1576.540000</v>
+        <v>1576.54</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1033.540000</v>
+        <v>-1033.54</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>56882.450685</v>
+        <v>56882.450685000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>15.800681</v>
+        <v>15.800681000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1985.770000</v>
+        <v>1985.77</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1579.410000</v>
+        <v>-1579.41</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>56709.116768</v>
       </c>
@@ -4593,208 +5009,208 @@
         <v>15.752532</v>
       </c>
       <c r="C18" s="1">
-        <v>903.593000</v>
+        <v>903.59299999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-192.202000</v>
+        <v>-192.202</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>56719.556564</v>
+        <v>56719.556563999999</v>
       </c>
       <c r="G18" s="1">
-        <v>15.755432</v>
+        <v>15.755432000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>919.711000</v>
+        <v>919.71100000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-162.646000</v>
+        <v>-162.64599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>56729.769190</v>
+        <v>56729.769189999999</v>
       </c>
       <c r="L18" s="1">
         <v>15.758269</v>
       </c>
       <c r="M18" s="1">
-        <v>941.730000</v>
+        <v>941.73</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.355000</v>
+        <v>-117.355</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>56740.352328</v>
+        <v>56740.352328000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>15.761209</v>
+        <v>15.761208999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>948.177000</v>
+        <v>948.17700000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.444000</v>
+        <v>-102.444</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>56750.826841</v>
+        <v>56750.826841000002</v>
       </c>
       <c r="V18" s="1">
-        <v>15.764119</v>
+        <v>15.764119000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>954.663000</v>
+        <v>954.66300000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.006100</v>
+        <v>-89.006100000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>56761.347483</v>
+        <v>56761.347482999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>15.767041</v>
+        <v>15.767041000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.890000</v>
+        <v>961.89</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.109700</v>
+        <v>-80.109700000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>56772.125052</v>
+        <v>56772.125052000003</v>
       </c>
       <c r="AF18" s="1">
         <v>15.770035</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.830000</v>
+        <v>966.83</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.997200</v>
+        <v>-79.997200000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>56782.731503</v>
+        <v>56782.731503000003</v>
       </c>
       <c r="AK18" s="1">
         <v>15.772981</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.863000</v>
+        <v>974.86300000000006</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.010100</v>
+        <v>-88.010099999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>56793.562182</v>
+        <v>56793.562182000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>15.775989</v>
+        <v>15.775988999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.118000</v>
+        <v>984.11800000000005</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.233000</v>
+        <v>-103.233</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>56804.265351</v>
+        <v>56804.265351000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>15.778963</v>
+        <v>15.778962999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.645000</v>
+        <v>995.64499999999998</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.107000</v>
+        <v>-125.107</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>56815.232357</v>
+        <v>56815.232357000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>15.782009</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.460000</v>
+        <v>1005.46</v>
       </c>
       <c r="BB18" s="1">
-        <v>-144.078000</v>
+        <v>-144.078</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>56826.598181</v>
+        <v>56826.598181000001</v>
       </c>
       <c r="BE18" s="1">
         <v>15.785166</v>
       </c>
       <c r="BF18" s="1">
-        <v>1051.570000</v>
+        <v>1051.57</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.601000</v>
+        <v>-229.601</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>56837.929814</v>
+        <v>56837.929814000003</v>
       </c>
       <c r="BJ18" s="1">
         <v>15.788314</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.260000</v>
+        <v>1132.26</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.067000</v>
+        <v>-366.06700000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>56849.075879</v>
+        <v>56849.075879000004</v>
       </c>
       <c r="BO18" s="1">
-        <v>15.791410</v>
+        <v>15.791410000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1265.150000</v>
+        <v>1265.1500000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.111000</v>
+        <v>-576.11099999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>56859.647611</v>
@@ -4803,303 +5219,303 @@
         <v>15.794347</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.780000</v>
+        <v>1413.78</v>
       </c>
       <c r="BV18" s="1">
-        <v>-800.500000</v>
+        <v>-800.5</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>56870.501595</v>
+        <v>56870.501595000002</v>
       </c>
       <c r="BY18" s="1">
         <v>15.797362</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1576.400000</v>
+        <v>1576.4</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1033.420000</v>
+        <v>-1033.42</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>56882.970027</v>
+        <v>56882.970027000003</v>
       </c>
       <c r="CD18" s="1">
         <v>15.800825</v>
       </c>
       <c r="CE18" s="1">
-        <v>1985.510000</v>
+        <v>1985.51</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1579.160000</v>
+        <v>-1579.16</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>56709.800288</v>
+        <v>56709.800287999999</v>
       </c>
       <c r="B19" s="1">
         <v>15.752722</v>
       </c>
       <c r="C19" s="1">
-        <v>903.770000</v>
+        <v>903.77</v>
       </c>
       <c r="D19" s="1">
-        <v>-192.114000</v>
+        <v>-192.114</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>56719.904258</v>
+        <v>56719.904258000002</v>
       </c>
       <c r="G19" s="1">
-        <v>15.755529</v>
+        <v>15.755528999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>919.411000</v>
+        <v>919.41099999999994</v>
       </c>
       <c r="I19" s="1">
-        <v>-163.256000</v>
+        <v>-163.256</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>56730.118870</v>
+        <v>56730.118869999998</v>
       </c>
       <c r="L19" s="1">
-        <v>15.758366</v>
+        <v>15.758366000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>941.564000</v>
+        <v>941.56399999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.275000</v>
+        <v>-117.27500000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>56740.701510</v>
+        <v>56740.701509999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>15.761306</v>
+        <v>15.761305999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>948.180000</v>
+        <v>948.18</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.394000</v>
+        <v>-102.39400000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>56751.485032</v>
+        <v>56751.485031999997</v>
       </c>
       <c r="V19" s="1">
         <v>15.764301</v>
       </c>
       <c r="W19" s="1">
-        <v>954.569000</v>
+        <v>954.56899999999996</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.157900</v>
+        <v>-89.157899999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>56761.998730</v>
+        <v>56761.998729999999</v>
       </c>
       <c r="AA19" s="1">
         <v>15.767222</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.835000</v>
+        <v>961.83500000000004</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.067000</v>
+        <v>-80.066999999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>56772.506478</v>
+        <v>56772.506478000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>15.770141</v>
+        <v>15.770141000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.884000</v>
+        <v>966.88400000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.924500</v>
+        <v>-79.924499999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>56783.065807</v>
+        <v>56783.065806999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>15.773074</v>
+        <v>15.773073999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.831000</v>
+        <v>974.83100000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.983600</v>
+        <v>-87.983599999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>56793.941586</v>
+        <v>56793.941586000001</v>
       </c>
       <c r="AP19" s="1">
         <v>15.776095</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.138000</v>
+        <v>984.13800000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.260000</v>
+        <v>-103.26</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>56804.627923</v>
       </c>
       <c r="AU19" s="1">
-        <v>15.779063</v>
+        <v>15.779063000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.670000</v>
+        <v>995.67</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.119000</v>
+        <v>-125.119</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>56815.590469</v>
+        <v>56815.590469000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>15.782108</v>
+        <v>15.782107999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.430000</v>
+        <v>1005.43</v>
       </c>
       <c r="BB19" s="1">
-        <v>-144.114000</v>
+        <v>-144.114</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>56827.043588</v>
       </c>
       <c r="BE19" s="1">
-        <v>15.785290</v>
+        <v>15.78529</v>
       </c>
       <c r="BF19" s="1">
-        <v>1051.570000</v>
+        <v>1051.57</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.618000</v>
+        <v>-229.61799999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>56838.272053</v>
+        <v>56838.272053000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>15.788409</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.260000</v>
+        <v>1132.26</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.077000</v>
+        <v>-366.077</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>56849.496487</v>
+        <v>56849.496486999997</v>
       </c>
       <c r="BO19" s="1">
         <v>15.791527</v>
       </c>
       <c r="BP19" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.104000</v>
+        <v>-576.10400000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>56860.059289</v>
+        <v>56860.059288999997</v>
       </c>
       <c r="BT19" s="1">
         <v>15.794461</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.740000</v>
+        <v>1413.74</v>
       </c>
       <c r="BV19" s="1">
-        <v>-800.509000</v>
+        <v>-800.50900000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>56870.949450</v>
+        <v>56870.94945</v>
       </c>
       <c r="BY19" s="1">
-        <v>15.797486</v>
+        <v>15.797485999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1576.600000</v>
+        <v>1576.6</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1033.410000</v>
+        <v>-1033.4100000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>56883.520092</v>
+        <v>56883.520091999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>15.800978</v>
+        <v>15.800978000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1985.170000</v>
+        <v>1985.17</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1578.310000</v>
+        <v>-1578.31</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>56710.143505</v>
       </c>
@@ -5107,542 +5523,542 @@
         <v>15.752818</v>
       </c>
       <c r="C20" s="1">
-        <v>903.740000</v>
+        <v>903.74</v>
       </c>
       <c r="D20" s="1">
-        <v>-191.998000</v>
+        <v>-191.99799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>56720.250465</v>
+        <v>56720.250464999997</v>
       </c>
       <c r="G20" s="1">
         <v>15.755625</v>
       </c>
       <c r="H20" s="1">
-        <v>920.220000</v>
+        <v>920.22</v>
       </c>
       <c r="I20" s="1">
-        <v>-163.191000</v>
+        <v>-163.191</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>56730.460614</v>
+        <v>56730.460614000003</v>
       </c>
       <c r="L20" s="1">
         <v>15.758461</v>
       </c>
       <c r="M20" s="1">
-        <v>941.637000</v>
+        <v>941.63699999999994</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.369000</v>
+        <v>-117.369</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>56741.377558</v>
       </c>
       <c r="Q20" s="1">
-        <v>15.761494</v>
+        <v>15.761494000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>948.227000</v>
+        <v>948.22699999999998</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.416000</v>
+        <v>-102.416</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>56751.859544</v>
+        <v>56751.859543999999</v>
       </c>
       <c r="V20" s="1">
         <v>15.764405</v>
       </c>
       <c r="W20" s="1">
-        <v>954.627000</v>
+        <v>954.62699999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.053200</v>
+        <v>-89.053200000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>56762.392059</v>
+        <v>56762.392058999998</v>
       </c>
       <c r="AA20" s="1">
         <v>15.767331</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.803000</v>
+        <v>961.803</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.043300</v>
+        <v>-80.043300000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>56772.851227</v>
+        <v>56772.851226999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>15.770236</v>
+        <v>15.770236000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.970000</v>
+        <v>966.97</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.855400</v>
+        <v>-79.855400000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>56783.412542</v>
+        <v>56783.412541999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>15.773170</v>
+        <v>15.77317</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.872000</v>
+        <v>974.87199999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.999800</v>
+        <v>-87.999799999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>56794.304204</v>
       </c>
       <c r="AP20" s="1">
-        <v>15.776196</v>
+        <v>15.776196000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.131000</v>
+        <v>984.13099999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.237000</v>
+        <v>-103.23699999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>56805.061393</v>
+        <v>56805.061393000004</v>
       </c>
       <c r="AU20" s="1">
-        <v>15.779184</v>
+        <v>15.779184000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.673000</v>
+        <v>995.673</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.085000</v>
+        <v>-125.08499999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>56816.304707</v>
+        <v>56816.304707000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.782307</v>
+        <v>15.782306999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.440000</v>
+        <v>1005.44</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.118000</v>
+        <v>-144.11799999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>56827.317878</v>
+        <v>56827.317878000002</v>
       </c>
       <c r="BE20" s="1">
         <v>15.785366</v>
       </c>
       <c r="BF20" s="1">
-        <v>1051.570000</v>
+        <v>1051.57</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.618000</v>
+        <v>-229.61799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>56838.647989</v>
+        <v>56838.647988999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>15.788513</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.300000</v>
+        <v>1132.3</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.071000</v>
+        <v>-366.07100000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>56849.888822</v>
+        <v>56849.888822000001</v>
       </c>
       <c r="BO20" s="1">
         <v>15.791636</v>
       </c>
       <c r="BP20" s="1">
-        <v>1265.230000</v>
+        <v>1265.23</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.150000</v>
+        <v>-576.15</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>56860.487336</v>
+        <v>56860.487335999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>15.794580</v>
+        <v>15.79458</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.910000</v>
+        <v>1413.91</v>
       </c>
       <c r="BV20" s="1">
-        <v>-800.467000</v>
+        <v>-800.46699999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>56871.381002</v>
+        <v>56871.381002000002</v>
       </c>
       <c r="BY20" s="1">
         <v>15.797606</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1576.330000</v>
+        <v>1576.33</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1033.420000</v>
+        <v>-1033.42</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>56884.047802</v>
+        <v>56884.047802000001</v>
       </c>
       <c r="CD20" s="1">
         <v>15.801124</v>
       </c>
       <c r="CE20" s="1">
-        <v>1986.510000</v>
+        <v>1986.51</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1579.350000</v>
+        <v>-1579.35</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>56710.484734</v>
+        <v>56710.484733999998</v>
       </c>
       <c r="B21" s="1">
         <v>15.752912</v>
       </c>
       <c r="C21" s="1">
-        <v>903.674000</v>
+        <v>903.67399999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-192.162000</v>
+        <v>-192.16200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>56720.911137</v>
+        <v>56720.911137000003</v>
       </c>
       <c r="G21" s="1">
-        <v>15.755809</v>
+        <v>15.755808999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>919.684000</v>
+        <v>919.68399999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-163.796000</v>
+        <v>-163.79599999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>56731.128725</v>
+        <v>56731.128725000002</v>
       </c>
       <c r="L21" s="1">
         <v>15.758647</v>
       </c>
       <c r="M21" s="1">
-        <v>941.720000</v>
+        <v>941.72</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.342000</v>
+        <v>-117.342</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>56741.747573</v>
+        <v>56741.747573000001</v>
       </c>
       <c r="Q21" s="1">
         <v>15.761597</v>
       </c>
       <c r="R21" s="1">
-        <v>948.265000</v>
+        <v>948.26499999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.460000</v>
+        <v>-102.46</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>56752.202744</v>
+        <v>56752.202744000002</v>
       </c>
       <c r="V21" s="1">
-        <v>15.764501</v>
+        <v>15.764500999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>954.729000</v>
+        <v>954.72900000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.103800</v>
+        <v>-89.103800000000007</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>56762.742762</v>
+        <v>56762.742762000002</v>
       </c>
       <c r="AA21" s="1">
         <v>15.767429</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.858000</v>
+        <v>961.85799999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.126100</v>
+        <v>-80.126099999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>56773.201404</v>
+        <v>56773.201403999999</v>
       </c>
       <c r="AF21" s="1">
         <v>15.770334</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.804000</v>
+        <v>966.80399999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.925300</v>
+        <v>-79.925299999999993</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>56783.829673</v>
       </c>
       <c r="AK21" s="1">
-        <v>15.773286</v>
+        <v>15.773286000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.855000</v>
+        <v>974.85500000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.995800</v>
+        <v>-87.995800000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>56794.730256</v>
+        <v>56794.730256000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.776314</v>
+        <v>15.776313999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.123000</v>
+        <v>984.12300000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.254000</v>
+        <v>-103.254</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>56805.358530</v>
+        <v>56805.358529999998</v>
       </c>
       <c r="AU21" s="1">
         <v>15.779266</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.653000</v>
+        <v>995.65300000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.126000</v>
+        <v>-125.126</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>56816.665793</v>
       </c>
       <c r="AZ21" s="1">
-        <v>15.782407</v>
+        <v>15.782406999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.440000</v>
+        <v>1005.44</v>
       </c>
       <c r="BB21" s="1">
-        <v>-144.107000</v>
+        <v>-144.107</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>56827.678965</v>
+        <v>56827.678964999999</v>
       </c>
       <c r="BE21" s="1">
         <v>15.785466</v>
       </c>
       <c r="BF21" s="1">
-        <v>1051.560000</v>
+        <v>1051.56</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.597000</v>
+        <v>-229.59700000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>56839.022501</v>
+        <v>56839.022500999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>15.788617</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.290000</v>
+        <v>1132.29</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.054000</v>
+        <v>-366.05399999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>56850.319349</v>
+        <v>56850.319348999998</v>
       </c>
       <c r="BO21" s="1">
         <v>15.791755</v>
       </c>
       <c r="BP21" s="1">
-        <v>1265.170000</v>
+        <v>1265.17</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.139000</v>
+        <v>-576.13900000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>56860.919882</v>
+        <v>56860.919882000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>15.794700</v>
+        <v>15.794700000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.880000</v>
+        <v>1413.88</v>
       </c>
       <c r="BV21" s="1">
-        <v>-800.525000</v>
+        <v>-800.52499999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>56871.803561</v>
+        <v>56871.803561000001</v>
       </c>
       <c r="BY21" s="1">
         <v>15.797723</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1576.580000</v>
+        <v>1576.58</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1033.460000</v>
+        <v>-1033.46</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>56884.568600</v>
+        <v>56884.568599999999</v>
       </c>
       <c r="CD21" s="1">
         <v>15.801269</v>
       </c>
       <c r="CE21" s="1">
-        <v>1986.530000</v>
+        <v>1986.53</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1577.720000</v>
+        <v>-1577.72</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>56711.139453</v>
+        <v>56711.139453000003</v>
       </c>
       <c r="B22" s="1">
-        <v>15.753094</v>
+        <v>15.753094000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>903.592000</v>
+        <v>903.59199999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-192.115000</v>
+        <v>-192.11500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>56721.282640</v>
+        <v>56721.282639999998</v>
       </c>
       <c r="G22" s="1">
         <v>15.755912</v>
       </c>
       <c r="H22" s="1">
-        <v>920.236000</v>
+        <v>920.23599999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-163.044000</v>
+        <v>-163.04400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>56731.496755</v>
@@ -5651,13 +6067,13 @@
         <v>15.758749</v>
       </c>
       <c r="M22" s="1">
-        <v>941.683000</v>
+        <v>941.68299999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.260000</v>
+        <v>-117.26</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>56742.097254</v>
@@ -5666,148 +6082,148 @@
         <v>15.761694</v>
       </c>
       <c r="R22" s="1">
-        <v>948.223000</v>
+        <v>948.22299999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.480000</v>
+        <v>-102.48</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>56752.546471</v>
+        <v>56752.546471000001</v>
       </c>
       <c r="V22" s="1">
-        <v>15.764596</v>
+        <v>15.764595999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>954.670000</v>
+        <v>954.67</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.127400</v>
+        <v>-89.127399999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>56763.087451</v>
+        <v>56763.087450999999</v>
       </c>
       <c r="AA22" s="1">
         <v>15.767524</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.858000</v>
+        <v>961.85799999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.120100</v>
+        <v>-80.120099999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>56773.623963</v>
+        <v>56773.623962999998</v>
       </c>
       <c r="AF22" s="1">
         <v>15.770451</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.822000</v>
+        <v>966.822</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.837200</v>
+        <v>-79.837199999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>56784.111901</v>
+        <v>56784.111900999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>15.773364</v>
+        <v>15.773364000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.843000</v>
+        <v>974.84299999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.017400</v>
+        <v>-88.017399999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>56795.027822</v>
+        <v>56795.027821999996</v>
       </c>
       <c r="AP22" s="1">
-        <v>15.776397</v>
+        <v>15.776396999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.140000</v>
+        <v>984.14</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.260000</v>
+        <v>-103.26</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>56805.721105</v>
+        <v>56805.721104999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>15.779367</v>
+        <v>15.779367000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.671000</v>
+        <v>995.67100000000005</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.109000</v>
+        <v>-125.10899999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>56817.024899</v>
+        <v>56817.024898999996</v>
       </c>
       <c r="AZ22" s="1">
-        <v>15.782507</v>
+        <v>15.782507000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.460000</v>
+        <v>1005.46</v>
       </c>
       <c r="BB22" s="1">
-        <v>-144.124000</v>
+        <v>-144.124</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>56828.040548</v>
+        <v>56828.040547999997</v>
       </c>
       <c r="BE22" s="1">
         <v>15.785567</v>
       </c>
       <c r="BF22" s="1">
-        <v>1051.570000</v>
+        <v>1051.57</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.615000</v>
+        <v>-229.61500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>56839.772915</v>
+        <v>56839.772915000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>15.788826</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.270000</v>
+        <v>1132.27</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.054000</v>
+        <v>-366.05399999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>56850.710197</v>
@@ -5816,43 +6232,43 @@
         <v>15.791864</v>
       </c>
       <c r="BP22" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.148000</v>
+        <v>-576.14800000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>56861.330901</v>
+        <v>56861.330901000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>15.794814</v>
+        <v>15.794814000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.890000</v>
+        <v>1413.89</v>
       </c>
       <c r="BV22" s="1">
-        <v>-800.403000</v>
+        <v>-800.40300000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>56872.223211</v>
+        <v>56872.223210999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>15.797840</v>
+        <v>15.797840000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1576.470000</v>
+        <v>1576.47</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1033.430000</v>
+        <v>-1033.43</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>56885.420756</v>
@@ -5861,30 +6277,30 @@
         <v>15.801506</v>
       </c>
       <c r="CE22" s="1">
-        <v>1986.850000</v>
+        <v>1986.85</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1578.710000</v>
+        <v>-1578.71</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>56711.506990</v>
+        <v>56711.506990000002</v>
       </c>
       <c r="B23" s="1">
-        <v>15.753196</v>
+        <v>15.753196000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>903.554000</v>
+        <v>903.55399999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-192.146000</v>
+        <v>-192.14599999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>56721.628352</v>
@@ -5893,58 +6309,58 @@
         <v>15.756008</v>
       </c>
       <c r="H23" s="1">
-        <v>919.750000</v>
+        <v>919.75</v>
       </c>
       <c r="I23" s="1">
-        <v>-163.127000</v>
+        <v>-163.12700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>56731.851395</v>
+        <v>56731.851394999998</v>
       </c>
       <c r="L23" s="1">
         <v>15.758848</v>
       </c>
       <c r="M23" s="1">
-        <v>941.875000</v>
+        <v>941.875</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.256000</v>
+        <v>-117.256</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>56742.444948</v>
+        <v>56742.444947999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>15.761790</v>
+        <v>15.76179</v>
       </c>
       <c r="R23" s="1">
-        <v>948.192000</v>
+        <v>948.19200000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.428000</v>
+        <v>-102.428</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>56752.976006</v>
+        <v>56752.976005999997</v>
       </c>
       <c r="V23" s="1">
         <v>15.764716</v>
       </c>
       <c r="W23" s="1">
-        <v>954.612000</v>
+        <v>954.61199999999997</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.135400</v>
+        <v>-89.135400000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>56763.512553</v>
@@ -5953,148 +6369,148 @@
         <v>15.767642</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.893000</v>
+        <v>961.89300000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.019900</v>
+        <v>-80.019900000000007</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>56773.904700</v>
+        <v>56773.904699999999</v>
       </c>
       <c r="AF23" s="1">
         <v>15.770529</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.810000</v>
+        <v>966.81</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.867100</v>
+        <v>-79.867099999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>56784.461052</v>
+        <v>56784.461051999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>15.773461</v>
+        <v>15.773460999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.840000</v>
+        <v>974.84</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.998700</v>
+        <v>-87.998699999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>56795.382463</v>
+        <v>56795.382463000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>15.776495</v>
+        <v>15.776495000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.133000</v>
+        <v>984.13300000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.239000</v>
+        <v>-103.239</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>56806.085137</v>
+        <v>56806.085137000002</v>
       </c>
       <c r="AU23" s="1">
         <v>15.779468</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.673000</v>
+        <v>995.673</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.122000</v>
+        <v>-125.122</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>56817.740657</v>
+        <v>56817.740657000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>15.782706</v>
+        <v>15.782705999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.089000</v>
+        <v>-144.089</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>56828.764242</v>
+        <v>56828.764241999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>15.785768</v>
+        <v>15.785767999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1051.560000</v>
+        <v>1051.56</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.602000</v>
+        <v>-229.602</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>56840.149634</v>
+        <v>56840.149634000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>15.788930</v>
+        <v>15.788930000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.260000</v>
+        <v>1132.26</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.061000</v>
+        <v>-366.06099999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>56851.133812</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.791982</v>
+        <v>15.791982000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.095000</v>
+        <v>-576.09500000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>56861.758087</v>
+        <v>56861.758087000002</v>
       </c>
       <c r="BT23" s="1">
         <v>15.794933</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.970000</v>
+        <v>1413.97</v>
       </c>
       <c r="BV23" s="1">
-        <v>-800.519000</v>
+        <v>-800.51900000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>56872.962215</v>
@@ -6103,694 +6519,694 @@
         <v>15.798045</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1576.670000</v>
+        <v>1576.67</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1033.400000</v>
+        <v>-1033.4000000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>56885.644919</v>
+        <v>56885.644918999998</v>
       </c>
       <c r="CD23" s="1">
         <v>15.801568</v>
       </c>
       <c r="CE23" s="1">
-        <v>1986.970000</v>
+        <v>1986.97</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1579.080000</v>
+        <v>-1579.08</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>56711.853233</v>
+        <v>56711.853233000002</v>
       </c>
       <c r="B24" s="1">
-        <v>15.753293</v>
+        <v>15.753292999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>903.709000</v>
+        <v>903.70899999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-192.222000</v>
+        <v>-192.22200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>56721.976048</v>
+        <v>56721.976047999997</v>
       </c>
       <c r="G24" s="1">
-        <v>15.756104</v>
+        <v>15.756104000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>920.086000</v>
+        <v>920.08600000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-162.677000</v>
+        <v>-162.67699999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>56732.200081</v>
+        <v>56732.200081000003</v>
       </c>
       <c r="L24" s="1">
         <v>15.758944</v>
       </c>
       <c r="M24" s="1">
-        <v>941.712000</v>
+        <v>941.71199999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.302000</v>
+        <v>-117.30200000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>56742.878451</v>
+        <v>56742.878450999997</v>
       </c>
       <c r="Q24" s="1">
         <v>15.761911</v>
       </c>
       <c r="R24" s="1">
-        <v>948.194000</v>
+        <v>948.19399999999996</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.420000</v>
+        <v>-102.42</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>56753.262198</v>
+        <v>56753.262197999997</v>
       </c>
       <c r="V24" s="1">
-        <v>15.764795</v>
+        <v>15.764794999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>954.694000</v>
+        <v>954.69399999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.082300</v>
+        <v>-89.082300000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>56763.792266</v>
+        <v>56763.792265999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>15.767720</v>
+        <v>15.767720000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.875000</v>
+        <v>961.875</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.089600</v>
+        <v>-80.089600000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>56774.247435</v>
+        <v>56774.247434999997</v>
       </c>
       <c r="AF24" s="1">
         <v>15.770624</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.853000</v>
+        <v>966.85299999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.908700</v>
+        <v>-79.908699999999996</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>56784.809773</v>
+        <v>56784.809773000001</v>
       </c>
       <c r="AK24" s="1">
         <v>15.773558</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.833000</v>
+        <v>974.83299999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.023900</v>
+        <v>-88.023899999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>56795.742095</v>
+        <v>56795.742095000001</v>
       </c>
       <c r="AP24" s="1">
         <v>15.776595</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.124000</v>
+        <v>984.12400000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.256000</v>
+        <v>-103.256</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>56806.824176</v>
+        <v>56806.824176000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>15.779673</v>
+        <v>15.779673000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.679000</v>
+        <v>995.67899999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.094000</v>
+        <v>-125.09399999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>56818.129026</v>
+        <v>56818.129026000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>15.782814</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.470000</v>
+        <v>1005.47</v>
       </c>
       <c r="BB24" s="1">
-        <v>-144.079000</v>
+        <v>-144.07900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>56829.124306</v>
+        <v>56829.124305999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>15.785868</v>
+        <v>15.785868000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1051.570000</v>
+        <v>1051.57</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.601000</v>
+        <v>-229.601</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>56840.522370</v>
+        <v>56840.522369999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>15.789034</v>
+        <v>15.789033999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.280000</v>
+        <v>1132.28</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.033000</v>
+        <v>-366.03300000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>56851.849044</v>
+        <v>56851.849044000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>15.792180</v>
+        <v>15.79218</v>
       </c>
       <c r="BP24" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.114000</v>
+        <v>-576.11400000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>56862.497622</v>
+        <v>56862.497622000003</v>
       </c>
       <c r="BT24" s="1">
         <v>15.795138</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.970000</v>
+        <v>1413.97</v>
       </c>
       <c r="BV24" s="1">
-        <v>-800.421000</v>
+        <v>-800.42100000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>56873.086711</v>
+        <v>56873.086711000004</v>
       </c>
       <c r="BY24" s="1">
-        <v>15.798080</v>
+        <v>15.798080000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1576.580000</v>
+        <v>1576.58</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1033.450000</v>
+        <v>-1033.45</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>56886.164758</v>
+        <v>56886.164757999999</v>
       </c>
       <c r="CD24" s="1">
         <v>15.801712</v>
       </c>
       <c r="CE24" s="1">
-        <v>1987.010000</v>
+        <v>1987.01</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1577.390000</v>
+        <v>-1577.39</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>56712.194940</v>
+        <v>56712.194940000001</v>
       </c>
       <c r="B25" s="1">
         <v>15.753387</v>
       </c>
       <c r="C25" s="1">
-        <v>903.537000</v>
+        <v>903.53700000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-192.147000</v>
+        <v>-192.14699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>56722.409054</v>
+        <v>56722.409054000003</v>
       </c>
       <c r="G25" s="1">
-        <v>15.756225</v>
+        <v>15.756225000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>920.103000</v>
+        <v>920.10299999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-163.525000</v>
+        <v>-163.52500000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>56732.626642</v>
+        <v>56732.626642000003</v>
       </c>
       <c r="L25" s="1">
-        <v>15.759063</v>
+        <v>15.759062999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>941.726000</v>
+        <v>941.726</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.479000</v>
+        <v>-117.479</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>56743.146824</v>
+        <v>56743.146824000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>15.761985</v>
+        <v>15.761984999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>948.218000</v>
+        <v>948.21799999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.413000</v>
+        <v>-102.413</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>56753.606421</v>
+        <v>56753.606420999997</v>
       </c>
       <c r="V25" s="1">
         <v>15.764891</v>
       </c>
       <c r="W25" s="1">
-        <v>954.617000</v>
+        <v>954.61699999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.100100</v>
+        <v>-89.100099999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>56764.140952</v>
+        <v>56764.140952000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>15.767817</v>
+        <v>15.767817000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.873000</v>
+        <v>961.87300000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.103600</v>
+        <v>-80.1036</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>56774.591162</v>
+        <v>56774.591161999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>15.770720</v>
+        <v>15.770720000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.879000</v>
+        <v>966.87900000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.900600</v>
+        <v>-79.900599999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>56785.506155</v>
+        <v>56785.506155000003</v>
       </c>
       <c r="AK25" s="1">
         <v>15.773752</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.834000</v>
+        <v>974.83399999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.019400</v>
+        <v>-88.019400000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>56796.465261</v>
+        <v>56796.465260999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>15.776796</v>
+        <v>15.776795999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.141000</v>
+        <v>984.14099999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.241000</v>
+        <v>-103.241</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>56807.208575</v>
+        <v>56807.208574999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>15.779780</v>
+        <v>15.779780000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.675000</v>
+        <v>995.67499999999995</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.113000</v>
+        <v>-125.113</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>56818.511407</v>
+        <v>56818.511406999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>15.782920</v>
+        <v>15.782920000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.450000</v>
+        <v>1005.45</v>
       </c>
       <c r="BB25" s="1">
-        <v>-144.117000</v>
+        <v>-144.11699999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>56829.486387</v>
+        <v>56829.486386999997</v>
       </c>
       <c r="BE25" s="1">
         <v>15.785968</v>
       </c>
       <c r="BF25" s="1">
-        <v>1051.570000</v>
+        <v>1051.57</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.628000</v>
+        <v>-229.62799999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>56841.222227</v>
+        <v>56841.222226999998</v>
       </c>
       <c r="BJ25" s="1">
         <v>15.789228</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.250000</v>
+        <v>1132.25</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.078000</v>
+        <v>-366.07799999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>56851.961107</v>
+        <v>56851.961107000003</v>
       </c>
       <c r="BO25" s="1">
         <v>15.792211</v>
       </c>
       <c r="BP25" s="1">
-        <v>1265.100000</v>
+        <v>1265.0999999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.134000</v>
+        <v>-576.13400000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>56862.632534</v>
+        <v>56862.632533999997</v>
       </c>
       <c r="BT25" s="1">
         <v>15.795176</v>
       </c>
       <c r="BU25" s="1">
-        <v>1414.030000</v>
+        <v>1414.03</v>
       </c>
       <c r="BV25" s="1">
-        <v>-800.434000</v>
+        <v>-800.43399999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>56873.504344</v>
+        <v>56873.504344000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>15.798196</v>
+        <v>15.798196000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1576.450000</v>
+        <v>1576.45</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1033.450000</v>
+        <v>-1033.45</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>56886.684566</v>
+        <v>56886.684566000004</v>
       </c>
       <c r="CD25" s="1">
         <v>15.801857</v>
       </c>
       <c r="CE25" s="1">
-        <v>1987.130000</v>
+        <v>1987.13</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1577.470000</v>
+        <v>-1577.47</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>56712.626957</v>
       </c>
       <c r="B26" s="1">
-        <v>15.753507</v>
+        <v>15.753507000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>903.615000</v>
+        <v>903.61500000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-192.196000</v>
+        <v>-192.196</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>56722.689294</v>
+        <v>56722.689294000003</v>
       </c>
       <c r="G26" s="1">
-        <v>15.756303</v>
+        <v>15.756303000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>919.730000</v>
+        <v>919.73</v>
       </c>
       <c r="I26" s="1">
-        <v>-163.024000</v>
+        <v>-163.024</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>56732.900433</v>
+        <v>56732.900433000003</v>
       </c>
       <c r="L26" s="1">
-        <v>15.759139</v>
+        <v>15.759138999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>941.782000</v>
+        <v>941.78200000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.337000</v>
+        <v>-117.337</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>56743.496998</v>
+        <v>56743.496998000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>15.762082</v>
+        <v>15.762081999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>948.232000</v>
+        <v>948.23199999999997</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.428000</v>
+        <v>-102.428</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>56753.949157</v>
+        <v>56753.949157000003</v>
       </c>
       <c r="V26" s="1">
         <v>15.764986</v>
       </c>
       <c r="W26" s="1">
-        <v>954.643000</v>
+        <v>954.64300000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.178000</v>
+        <v>-89.177999999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>56764.489143</v>
+        <v>56764.489142999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>15.767914</v>
+        <v>15.767913999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.851000</v>
+        <v>961.851</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.055400</v>
+        <v>-80.055400000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>56775.279610</v>
+        <v>56775.279609999998</v>
       </c>
       <c r="AF26" s="1">
         <v>15.770911</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.819000</v>
+        <v>966.81899999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.895200</v>
+        <v>-79.895200000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>56785.856331</v>
+        <v>56785.856331000003</v>
       </c>
       <c r="AK26" s="1">
         <v>15.773849</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.845000</v>
+        <v>974.84500000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.011100</v>
+        <v>-88.011099999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>56796.826812</v>
+        <v>56796.826811999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>15.776896</v>
+        <v>15.776896000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.115000</v>
+        <v>984.11500000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.237000</v>
+        <v>-103.23699999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>56807.572142</v>
+        <v>56807.572141999997</v>
       </c>
       <c r="AU26" s="1">
         <v>15.779881</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.661000</v>
+        <v>995.66099999999994</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.126000</v>
+        <v>-125.126</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>56819.187952</v>
@@ -6799,105 +7215,106 @@
         <v>15.783108</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.460000</v>
+        <v>1005.46</v>
       </c>
       <c r="BB26" s="1">
-        <v>-144.100000</v>
+        <v>-144.1</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>56830.159993</v>
+        <v>56830.159993000001</v>
       </c>
       <c r="BE26" s="1">
         <v>15.786156</v>
       </c>
       <c r="BF26" s="1">
-        <v>1051.560000</v>
+        <v>1051.56</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.629000</v>
+        <v>-229.62899999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>56841.654241</v>
+        <v>56841.654240999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>15.789348</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.300000</v>
+        <v>1132.3</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.030000</v>
+        <v>-366.03</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>56852.374803</v>
+        <v>56852.374802999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>15.792326</v>
+        <v>15.792325999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.108000</v>
+        <v>-576.10799999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>56863.046198</v>
+        <v>56863.046197999996</v>
       </c>
       <c r="BT26" s="1">
-        <v>15.795291</v>
+        <v>15.795291000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1414.120000</v>
+        <v>1414.12</v>
       </c>
       <c r="BV26" s="1">
-        <v>-800.416000</v>
+        <v>-800.41600000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>56873.954711</v>
+        <v>56873.954710999998</v>
       </c>
       <c r="BY26" s="1">
         <v>15.798321</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1576.500000</v>
+        <v>1576.5</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1033.410000</v>
+        <v>-1033.4100000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>56887.243525</v>
+        <v>56887.243524999998</v>
       </c>
       <c r="CD26" s="1">
         <v>15.802012</v>
       </c>
       <c r="CE26" s="1">
-        <v>1987.170000</v>
+        <v>1987.17</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1578.830000</v>
+        <v>-1578.83</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>